--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvinchen/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0A09B4-B048-B448-8732-043341977214}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED48C95-F749-4D47-888F-F2D03531D715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="42380" windowHeight="26300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -115,9 +115,6 @@
     <t>Reproducible Output: R Markdown</t>
   </si>
   <si>
-    <t>Catch-up/Recap</t>
-  </si>
-  <si>
     <t>String Manipulation: stringr</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>Exploratory Data Analysis II: tidyverse</t>
+  </si>
+  <si>
+    <t>Project-based Makeup Assignment</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1010,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43882</v>
+        <v>43896</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1021,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>43889</v>
+        <v>43903</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1032,10 +1032,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>43896</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>43910</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1043,10 +1043,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>43903</v>
+        <v>43917</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1054,10 +1054,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>43910</v>
+        <v>43924</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>43917</v>
+        <v>43931</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -1076,10 +1076,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>43924</v>
+        <v>43938</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1087,10 +1087,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>43931</v>
+        <v>43945</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1098,10 +1098,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>43938</v>
+        <v>43952</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1109,10 +1109,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>43945</v>
+        <v>43959</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1120,10 +1120,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>43952</v>
+        <v>43966</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>43959</v>
+        <v>43973</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>35</v>
@@ -1142,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>43966</v>
+        <v>43980</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>36</v>
@@ -1153,10 +1153,10 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>43973</v>
+        <v>43987</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1164,10 +1164,10 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>43980</v>
+        <v>43994</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1175,10 +1175,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="2">
-        <v>43987</v>
+        <v>44001</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1186,10 +1186,10 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>43994</v>
+        <v>44008</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1197,10 +1197,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="2">
-        <v>44001</v>
+        <v>44015</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED48C95-F749-4D47-888F-F2D03531D715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DE3443-0EA5-BB4D-91F8-B71D14F10CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="42380" windowHeight="26300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,7 +986,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DE3443-0EA5-BB4D-91F8-B71D14F10CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FEE235-835B-CE4E-ABB9-F256FD8A71C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="42380" windowHeight="26300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Week</t>
   </si>
@@ -109,12 +109,6 @@
     <t>Data Manipulation: dplyr</t>
   </si>
   <si>
-    <t>Web Scraping: rvest</t>
-  </si>
-  <si>
-    <t>Reproducible Output: R Markdown</t>
-  </si>
-  <si>
     <t>String Manipulation: stringr</t>
   </si>
   <si>
@@ -127,13 +121,13 @@
     <t>Functional Programming, Functions, and Iterations: purrr</t>
   </si>
   <si>
-    <t>Exploratory Data Analysis I: tidyverse</t>
-  </si>
-  <si>
-    <t>Exploratory Data Analysis II: tidyverse</t>
-  </si>
-  <si>
     <t>Project-based Makeup Assignment</t>
+  </si>
+  <si>
+    <t>Encoding Issues and Control Structures</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis: A Demo</t>
   </si>
 </sst>
 </file>
@@ -986,7 +980,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1079,7 +1073,7 @@
         <v>43938</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1101,7 +1095,7 @@
         <v>43952</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,7 +1106,7 @@
         <v>43959</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1123,7 +1117,7 @@
         <v>43966</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,7 +1128,7 @@
         <v>43973</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1145,7 +1139,7 @@
         <v>43980</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1156,7 +1150,7 @@
         <v>43987</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1167,7 +1161,7 @@
         <v>43994</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1200,7 +1194,7 @@
         <v>44015</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FEE235-835B-CE4E-ABB9-F256FD8A71C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18299F6-0374-7D4E-BCFB-A28FC07C0C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="42380" windowHeight="26300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Week</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Exploratory Data Analysis: A Demo</t>
+  </si>
+  <si>
+    <t>Sports Day</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +451,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -611,7 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -621,6 +636,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -980,7 +1001,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>43896</v>
+        <v>44442</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1015,7 +1036,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>43903</v>
+        <v>44449</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
@@ -1026,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>43910</v>
+        <v>44456</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -1037,7 +1058,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>43917</v>
+        <v>44463</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -1048,10 +1069,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>43924</v>
+        <v>44470</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1059,10 +1080,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>43931</v>
+        <v>44477</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1070,10 +1091,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>43938</v>
+        <v>44484</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1081,21 +1102,21 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>43945</v>
+        <v>44491</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
-        <v>43952</v>
+      <c r="B10" s="5">
+        <v>44498</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1103,7 +1124,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>43959</v>
+        <v>44505</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -1114,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>43966</v>
+        <v>44512</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1124,11 +1145,11 @@
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
-        <v>43973</v>
+      <c r="B13" s="4">
+        <v>44519</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1136,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>43980</v>
+        <v>44526</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>34</v>
@@ -1147,7 +1168,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>43987</v>
+        <v>44533</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1158,7 +1179,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>43994</v>
+        <v>44540</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>35</v>
@@ -1168,8 +1189,8 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
-        <v>44001</v>
+      <c r="B17" s="5">
+        <v>44547</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1180,21 +1201,21 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>44008</v>
+        <v>44554</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
-        <v>44015</v>
+      <c r="B19" s="4">
+        <v>44561</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18299F6-0374-7D4E-BCFB-A28FC07C0C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238D9417-5145-C343-94E4-27B32D7A71C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="42380" windowHeight="26300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238D9417-5145-C343-94E4-27B32D7A71C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26560E3-3236-154C-AEAC-575363D814D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="6880" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Week</t>
   </si>
@@ -118,19 +118,16 @@
     <t>Data Import: readr, readtext</t>
   </si>
   <si>
-    <t>Functional Programming, Functions, and Iterations: purrr</t>
-  </si>
-  <si>
     <t>Project-based Makeup Assignment</t>
   </si>
   <si>
-    <t>Encoding Issues and Control Structures</t>
-  </si>
-  <si>
     <t>Exploratory Data Analysis: A Demo</t>
   </si>
   <si>
     <t>Sports Day</t>
+  </si>
+  <si>
+    <t>Flow Controls and Functional Programming</t>
   </si>
 </sst>
 </file>
@@ -273,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,12 +453,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +631,7 @@
     <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44442</v>
+        <v>44463</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1036,7 +1027,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>44449</v>
+        <v>44470</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>24</v>
@@ -1047,7 +1038,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>44456</v>
+        <v>44477</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
@@ -1058,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>44463</v>
+        <v>44484</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -1069,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>44470</v>
+        <v>44491</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -1079,8 +1070,8 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
-        <v>44477</v>
+      <c r="B7" s="5">
+        <v>44498</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>31</v>
@@ -1091,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>44484</v>
+        <v>44505</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>29</v>
@@ -1102,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>44491</v>
+        <v>44512</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
@@ -1113,7 +1104,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="5">
-        <v>44498</v>
+        <v>44519</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -1123,8 +1114,8 @@
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
-        <v>44505</v>
+      <c r="B11" s="5">
+        <v>44526</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -1135,7 +1126,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>44512</v>
+        <v>44533</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
@@ -1146,21 +1137,21 @@
         <v>15</v>
       </c>
       <c r="B13" s="4">
-        <v>44519</v>
+        <v>44540</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
-        <v>44526</v>
+      <c r="B14" s="5">
+        <v>44547</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1168,29 +1159,29 @@
         <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>44533</v>
+        <v>44554</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
-        <v>44540</v>
+      <c r="B16" s="4">
+        <v>44561</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5">
-        <v>44547</v>
+      <c r="B17" s="2">
+        <v>44568</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>22</v>
@@ -1200,22 +1191,22 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>44554</v>
+      <c r="B18" s="5">
+        <v>44575</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="4">
-        <v>44561</v>
+      <c r="B19" s="2">
+        <v>44582</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26560E3-3236-154C-AEAC-575363D814D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B766975B-8189-144A-B53A-73647E10BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="6880" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10340" yWindow="8340" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -94,40 +94,40 @@
     <t>Holiday</t>
   </si>
   <si>
-    <t>Data Structure: vectors, lists, matrix, data frame, tibble</t>
-  </si>
-  <si>
-    <t>Data Science and R Fundamentals</t>
-  </si>
-  <si>
-    <t>Subsetting</t>
-  </si>
-  <si>
-    <t>Data Visualization: ggplot2</t>
-  </si>
-  <si>
-    <t>Data Manipulation: dplyr</t>
-  </si>
-  <si>
-    <t>String Manipulation: stringr</t>
-  </si>
-  <si>
-    <t>Regular Expressions: stringr</t>
-  </si>
-  <si>
-    <t>Data Import: readr, readtext</t>
-  </si>
-  <si>
-    <t>Project-based Makeup Assignment</t>
-  </si>
-  <si>
-    <t>Exploratory Data Analysis: A Demo</t>
-  </si>
-  <si>
     <t>Sports Day</t>
   </si>
   <si>
-    <t>Flow Controls and Functional Programming</t>
+    <t xml:space="preserve">Data Science and R </t>
+  </si>
+  <si>
+    <t>R Fundamentals</t>
+  </si>
+  <si>
+    <t>Code Format Convention, Subsetting</t>
+  </si>
+  <si>
+    <t>Conditions and Loops</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Data Manipulation</t>
+  </si>
+  <si>
+    <t>String Manipulation and Regular Expressions</t>
+  </si>
+  <si>
+    <t>Data IO and Iteration</t>
+  </si>
+  <si>
+    <t>Data Analysis and Text Analytics: A Primer</t>
+  </si>
+  <si>
+    <t>Project-based Assignment</t>
   </si>
 </sst>
 </file>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1030,7 +1030,7 @@
         <v>44470</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1041,7 +1041,7 @@
         <v>44477</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1052,7 +1052,7 @@
         <v>44484</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1063,7 +1063,7 @@
         <v>44491</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
         <v>44498</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
         <v>44505</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>44512</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1118,7 +1118,7 @@
         <v>44526</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1129,7 +1129,7 @@
         <v>44533</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1140,7 +1140,7 @@
         <v>44540</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1151,7 +1151,7 @@
         <v>44547</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1162,7 +1162,7 @@
         <v>44554</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1195,7 +1195,7 @@
         <v>44575</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>44582</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alvin/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B766975B-8189-144A-B53A-73647E10BA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1692B-B9D8-CC4D-9553-1473FE94AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="8340" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5120" yWindow="3200" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Week</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Week 8</t>
   </si>
   <si>
-    <t>Week 18</t>
-  </si>
-  <si>
     <t>Week 9</t>
   </si>
   <si>
@@ -82,21 +79,12 @@
     <t>Week 16</t>
   </si>
   <si>
-    <t>Week 17</t>
-  </si>
-  <si>
     <t>Midterm Exam</t>
   </si>
   <si>
     <t>Final Exam</t>
   </si>
   <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>Sports Day</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Science and R </t>
   </si>
   <si>
@@ -118,16 +106,16 @@
     <t>Data Manipulation</t>
   </si>
   <si>
-    <t>String Manipulation and Regular Expressions</t>
-  </si>
-  <si>
     <t>Data IO and Iteration</t>
   </si>
   <si>
     <t>Data Analysis and Text Analytics: A Primer</t>
   </si>
   <si>
-    <t>Project-based Assignment</t>
+    <t xml:space="preserve">String Manipulation </t>
+  </si>
+  <si>
+    <t>Regular Expressions</t>
   </si>
 </sst>
 </file>
@@ -270,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,12 +436,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,7 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,12 +610,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -989,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1002,7 @@
         <v>44463</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1027,10 +1010,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>44470</v>
+        <v>44981</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1038,10 +1021,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>44477</v>
+        <v>44988</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1049,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>44484</v>
+        <v>44995</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1060,21 +1043,21 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>44491</v>
+        <v>45002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
-        <v>44498</v>
+      <c r="B7" s="2">
+        <v>45009</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,10 +1065,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>44505</v>
+        <v>45016</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1093,120 +1076,98 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>44512</v>
+        <v>45023</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>44519</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>45030</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44526</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45037</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>44533</v>
+        <v>45044</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="4">
-        <v>44540</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45051</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5">
-        <v>44547</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45058</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>44554</v>
+        <v>45065</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45072</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4">
-        <v>44561</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44568</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="5">
+        <v>45079</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" s="5">
-        <v>44575</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44582</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F1692B-B9D8-CC4D-9553-1473FE94AAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F4290-5B06-C445-9E9F-7A38D6822841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5120" yWindow="3200" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8FA07D-2A42-E94B-8539-FAD2BC0C0F5A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44463</v>
+        <v>44981</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -1010,7 +1010,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -1021,7 +1021,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>44988</v>
+        <v>44995</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -1032,7 +1032,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>44995</v>
+        <v>45002</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -1043,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>45002</v>
+        <v>45009</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -1054,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>45009</v>
+        <v>45016</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -1065,7 +1065,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>45016</v>
+        <v>45023</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
@@ -1076,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>45023</v>
+        <v>45030</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1087,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>45030</v>
+        <v>45037</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
@@ -1098,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>45037</v>
+        <v>45044</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
@@ -1109,7 +1109,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>45044</v>
+        <v>45051</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -1120,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>45051</v>
+        <v>45058</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>31</v>
@@ -1131,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>45058</v>
+        <v>45065</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1142,7 +1142,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>45065</v>
+        <v>45072</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1153,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>45072</v>
+        <v>45079</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
@@ -1164,7 +1164,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="5">
-        <v>45079</v>
+        <v>45086</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Library/CloudStorage/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F4290-5B06-C445-9E9F-7A38D6822841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB252311-E098-3E4F-9A2B-FF90AEA61CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="3200" windowWidth="30720" windowHeight="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Week</t>
   </si>
@@ -112,10 +112,16 @@
     <t>Data Analysis and Text Analytics: A Primer</t>
   </si>
   <si>
-    <t xml:space="preserve">String Manipulation </t>
-  </si>
-  <si>
     <t>Regular Expressions</t>
+  </si>
+  <si>
+    <t>University Sports Day (No Meeting)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Regular Expressions</t>
+  </si>
+  <si>
+    <t>String Manipulation</t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -617,6 +623,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -975,7 +988,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -999,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>44981</v>
+        <v>45541</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -1010,7 +1023,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>44988</v>
+        <v>45548</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -1021,7 +1034,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>44995</v>
+        <v>45555</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -1032,7 +1045,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>45002</v>
+        <v>45562</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -1043,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>45009</v>
+        <v>45569</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
@@ -1054,7 +1067,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2">
-        <v>45016</v>
+        <v>45576</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>26</v>
@@ -1065,32 +1078,32 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>45023</v>
+        <v>45583</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>45030</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="5">
+        <v>45590</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
-        <v>45037</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
+      <c r="B10" s="8">
+        <v>45597</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1098,10 +1111,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2">
-        <v>45044</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>45604</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1109,10 +1122,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>45051</v>
+        <v>45611</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1120,10 +1133,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>45058</v>
+        <v>45618</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1131,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>45065</v>
+        <v>45625</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>28</v>
@@ -1142,7 +1155,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>45072</v>
+        <v>45632</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>28</v>
@@ -1153,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>45079</v>
+        <v>45639</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>29</v>
@@ -1163,8 +1176,8 @@
       <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5">
-        <v>45086</v>
+      <c r="B17" s="2">
+        <v>45646</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>

--- a/docs/course_schedule.xlsx
+++ b/docs/course_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvinchen/Library/CloudStorage/Dropbox/NTNU/Programming_Linguistics/NTNU_ENC2055/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB252311-E098-3E4F-9A2B-FF90AEA61CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EED02B-0D7D-D74C-8933-D9C639C7DEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="2" r:id="rId1"/>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -623,13 +623,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -988,7 +981,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1092,18 +1085,18 @@
         <v>45590</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45597</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8">
-        <v>45597</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
